--- a/biology/Biochimie/Benzoyl-coenzyme_A/Benzoyl-coenzyme_A.xlsx
+++ b/biology/Biochimie/Benzoyl-coenzyme_A/Benzoyl-coenzyme_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La benzoyl-coenzyme A, souvent abrégé en benzoyl-CoA, est le thioester de l'acide benzoïque et de la coenzyme A. Elle est impliquée dans l'action de différentes enzymes, notamment la 4-hydroxybenzoyl-coenzyme A réductase, la benzoyl-coenzyme A réductase, la benzoyl-coenzyme A 3-monooxygénase, la benzoate-coenzyme A ligase, la 2-alpha-hydroxytaxane 2-O-benzoyltransférase, l'anthranilate N-benzoyltransférase, la biphényl synthase, la glycine N-benzoyltransférase, l'ornithine N-benzoyltransférase et la phénylglyoxylate déshydrogénase.
@@ -512,9 +524,11 @@
           <t>Biosynthèse des xanthonoïdes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La benzoyl-coenzyme A est un substrat pour la formation des xanthonoïdes chez le millepertuis androsème (Hypericum androsaemum) par l'action de la benzophénone synthase condensant une molécule de benzoyl-CoA avec trois molécules de malonyl-CoA menant à la 2,4,6-trihydroxybenzophénone. Cet intermédiaire est ensuite converti par l'action de la benzophénone 3′-hydroxylase, une monooxygénase du cytochrome P450, menant à la formation de la 2,3′,4,6-tétrahydroxybenzophénone[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La benzoyl-coenzyme A est un substrat pour la formation des xanthonoïdes chez le millepertuis androsème (Hypericum androsaemum) par l'action de la benzophénone synthase condensant une molécule de benzoyl-CoA avec trois molécules de malonyl-CoA menant à la 2,4,6-trihydroxybenzophénone. Cet intermédiaire est ensuite converti par l'action de la benzophénone 3′-hydroxylase, une monooxygénase du cytochrome P450, menant à la formation de la 2,3′,4,6-tétrahydroxybenzophénone.
 </t>
         </is>
       </c>
